--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY_DATAS\MyGit\supermarket-agent-based-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C1359D-795B-4A38-AD72-97C4F375EBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B941EC-4661-432E-9391-47FDDA928DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41BB087A-5017-4CE2-9B63-E57FF005AD7D}"/>
+    <workbookView minimized="1" xWindow="-10845" yWindow="2385" windowWidth="21600" windowHeight="11325" xr2:uid="{41BB087A-5017-4CE2-9B63-E57FF005AD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>128 products</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>entrance</t>
+  </si>
+  <si>
+    <t>SETP SIZE =</t>
+  </si>
+  <si>
+    <t>percent open</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>closing</t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,21 +722,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D91DD6-C8B9-4BE1-8E9C-9442024BD7E5}">
-  <dimension ref="G1:AP34"/>
+  <dimension ref="G1:BF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AH6:AL6"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE14" sqref="BE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="38" width="3.44140625" style="1" customWidth="1"/>
     <col min="47" max="47" width="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.44140625" customWidth="1"/>
+    <col min="51" max="51" width="4.77734375" customWidth="1"/>
     <col min="54" max="54" width="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="7:42" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="7:58" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="16"/>
       <c r="H2" s="2">
         <v>-25</v>
@@ -817,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="3">
         <v>24</v>
       </c>
@@ -853,7 +871,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="6"/>
     </row>
-    <row r="4" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="3">
         <v>23</v>
       </c>
@@ -888,8 +906,15 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="9"/>
-    </row>
-    <row r="5" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="1">
+        <f xml:space="preserve"> 1 / 24 *100</f>
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="3">
         <v>22</v>
       </c>
@@ -924,8 +949,14 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="23"/>
-    </row>
-    <row r="6" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="3">
         <v>21</v>
       </c>
@@ -963,8 +994,14 @@
       <c r="AP6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G7" s="3">
         <v>20</v>
       </c>
@@ -999,8 +1036,27 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="19"/>
-    </row>
-    <row r="8" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <f>AV7/24*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AY7">
+        <f>ROUND(AX7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE7" s="1" t="str">
+        <f>IF(AX7&lt;$BE$5+$BE$4,"O","")</f>
+        <v>O</v>
+      </c>
+      <c r="BF7" s="1" t="str">
+        <f t="shared" ref="BF7:BF10" si="0">IF(AY7&gt;$BE$5+$BE$4,"C","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="3">
         <v>19</v>
       </c>
@@ -1035,8 +1091,27 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="19"/>
-    </row>
-    <row r="9" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" ref="AX8:AX30" si="1">AV8/24*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" ref="AY8:AY30" si="2">ROUND(AX8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BE8" s="1" t="str">
+        <f t="shared" ref="BE8:BE30" si="3">IF(AX8&lt;$BE$5+$BE$4,"O","")</f>
+        <v>O</v>
+      </c>
+      <c r="BF8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="3">
         <v>18</v>
       </c>
@@ -1071,8 +1146,27 @@
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="19"/>
-    </row>
-    <row r="10" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="BE9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>O</v>
+      </c>
+      <c r="BF9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G10" s="3">
         <v>17</v>
       </c>
@@ -1107,8 +1201,27 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="19"/>
-    </row>
-    <row r="11" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="1"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="BE10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>O</v>
+      </c>
+      <c r="BF10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="3">
         <v>16</v>
       </c>
@@ -1143,8 +1256,30 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="19"/>
-    </row>
-    <row r="12" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="1"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="BD11">
+        <v>18</v>
+      </c>
+      <c r="BE11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>O</v>
+      </c>
+      <c r="BF11" s="1" t="str">
+        <f>IF(AY11&gt;$BE$5+$BE$4,"C","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="3">
         <v>15</v>
       </c>
@@ -1179,8 +1314,27 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="19"/>
-    </row>
-    <row r="13" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="BE12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF12" s="1" t="str">
+        <f t="shared" ref="BF12:BF30" si="4">IF(AY12&gt;$BE$5+$BE$4,"C","")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G13" s="3">
         <v>14</v>
       </c>
@@ -1215,8 +1369,27 @@
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="19"/>
-    </row>
-    <row r="14" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="1"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="BE13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="3">
         <v>13</v>
       </c>
@@ -1251,8 +1424,27 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="9"/>
-    </row>
-    <row r="15" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="BE14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="15" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15" s="3">
         <v>12</v>
       </c>
@@ -1287,8 +1479,27 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="9"/>
-    </row>
-    <row r="16" spans="7:42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV15">
+        <v>9</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="BE15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="16" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16" s="3">
         <v>11</v>
       </c>
@@ -1323,8 +1534,27 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="9"/>
-    </row>
-    <row r="17" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV16">
+        <v>10</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="1"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="BE16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="3">
         <v>10</v>
       </c>
@@ -1359,8 +1589,27 @@
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="19"/>
-    </row>
-    <row r="18" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV17">
+        <v>11</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="1"/>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="BE17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="3">
         <v>9</v>
       </c>
@@ -1395,8 +1644,27 @@
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="19"/>
-    </row>
-    <row r="19" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV18">
+        <v>12</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="BE18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="19" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="3">
         <v>8</v>
       </c>
@@ -1431,8 +1699,27 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="19"/>
-    </row>
-    <row r="20" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV19">
+        <v>13</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="1"/>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="BE19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="20" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="3">
         <v>7</v>
       </c>
@@ -1467,8 +1754,27 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="19"/>
-    </row>
-    <row r="21" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV20">
+        <v>14</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="1"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="BE20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="21" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="3">
         <v>6</v>
       </c>
@@ -1503,8 +1809,27 @@
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="19"/>
-    </row>
-    <row r="22" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV21">
+        <v>15</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="BE21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="22" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="3">
         <v>5</v>
       </c>
@@ -1539,8 +1864,27 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="19"/>
-    </row>
-    <row r="23" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV22">
+        <v>16</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="BE22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="23" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="3">
         <v>4</v>
       </c>
@@ -1575,8 +1919,27 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="19"/>
-    </row>
-    <row r="24" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV23">
+        <v>17</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="1"/>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="BE23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="24" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="3">
         <v>3</v>
       </c>
@@ -1611,8 +1974,27 @@
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="19"/>
-    </row>
-    <row r="25" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV24">
+        <v>18</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="BE24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="25" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="3">
         <v>2</v>
       </c>
@@ -1647,8 +2029,27 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="23"/>
-    </row>
-    <row r="26" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV25">
+        <v>19</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="1"/>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="BE25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="26" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="3">
         <v>1</v>
       </c>
@@ -1683,8 +2084,27 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="23"/>
-    </row>
-    <row r="27" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV26">
+        <v>20</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="BE26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="27" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1719,8 +2139,27 @@
       <c r="AJ27" s="11"/>
       <c r="AK27" s="11"/>
       <c r="AL27" s="12"/>
-    </row>
-    <row r="28" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV27">
+        <v>21</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="BE27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="28" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="3">
         <v>-1</v>
       </c>
@@ -1755,8 +2194,27 @@
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="32"/>
-    </row>
-    <row r="29" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV28">
+        <v>22</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="1"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="BE28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="29" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="3">
         <v>-2</v>
       </c>
@@ -1791,8 +2249,27 @@
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="32"/>
-    </row>
-    <row r="30" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV29">
+        <v>23</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="1"/>
+        <v>95.833333333333343</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="BE29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="30" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="3">
         <v>-3</v>
       </c>
@@ -1831,8 +2308,27 @@
       </c>
       <c r="AK30" s="31"/>
       <c r="AL30" s="32"/>
-    </row>
-    <row r="31" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV30">
+        <v>24</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="BE30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="31" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="3">
         <v>-4</v>
       </c>
@@ -1868,7 +2364,7 @@
       <c r="AK31" s="31"/>
       <c r="AL31" s="32"/>
     </row>
-    <row r="32" spans="7:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32" s="3">
         <v>-5</v>
       </c>
